--- a/dynamodb/dynamodb建模.xlsx
+++ b/dynamodb/dynamodb建模.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11720"/>
+    <workbookView windowWidth="28800" windowHeight="11740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="4" r:id="rId1"/>
+    <sheet name="博客" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -63,9 +64,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -93,6 +94,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -102,6 +111,104 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,112 +221,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,181 +237,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,26 +434,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -464,6 +445,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,24 +514,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,133 +527,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,13 +662,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,8 +1000,8 @@
   <sheetPr/>
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="B18" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.0446428571429" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -1023,7 +1024,6 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" customFormat="1" spans="1:4">
@@ -1097,12 +1097,124 @@
     </row>
     <row r="10" customFormat="1" spans="3:5">
       <c r="C10" s="1"/>
-      <c r="D10"/>
       <c r="E10" s="1"/>
     </row>
     <row r="12" customFormat="1" spans="3:5">
       <c r="C12" s="1"/>
-      <c r="D12"/>
+      <c r="E12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A2:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="44.0446428571429" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="20.0714285714286" customWidth="1"/>
+    <col min="2" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="16384" width="44.0446428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="1" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" customFormat="1" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:1">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:5">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="3:5">
+      <c r="C10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="12" customFormat="1" spans="3:5">
+      <c r="C12" s="1"/>
       <c r="E12" s="1"/>
     </row>
   </sheetData>

--- a/dynamodb/dynamodb建模.xlsx
+++ b/dynamodb/dynamodb建模.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11740" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="4" r:id="rId1"/>
-    <sheet name="博客" sheetId="5" r:id="rId2"/>
+    <sheet name="博客" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -64,10 +64,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -79,6 +79,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -93,9 +100,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,115 +201,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -237,19 +237,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,157 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,23 +428,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,7 +438,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,8 +461,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,153 +507,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1115,107 +1115,106 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="44.0446428571429" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.0714285714286" customWidth="1"/>
-    <col min="2" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="16384" width="44.0446428571429" customWidth="1"/>
+    <col min="1" max="1" width="22.0714285714286" customWidth="1"/>
+    <col min="2" max="2" width="7.28571428571429" customWidth="1"/>
+    <col min="3" max="4" width="30.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="8.78571428571429" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="1" spans="1:6">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" customFormat="1" spans="1:4">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:3">
-      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:1">
-      <c r="A6" t="s">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:5">
-      <c r="A7" t="s">
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:3">
-      <c r="A8" t="s">
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
         <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:3">
-      <c r="A9" t="s">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="3:5">
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="12" customFormat="1" spans="3:5">
-      <c r="C12" s="1"/>
-      <c r="E12" s="1"/>
+    <row r="10" spans="4:4">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
